--- a/biology/Histoire de la zoologie et de la botanique/Max_Onno/Max_Onno.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Max_Onno/Max_Onno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Onno, né le 8 juin 1903 à Vienne (Autriche)[1], est un botaniste autrichien qui s'est consacré à l'étude des plantes de la famille des Asteraceae et qui travailla à l'Institut de botanique de l'université de Vienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Onno, né le 8 juin 1903 à Vienne (Autriche), est un botaniste autrichien qui s'est consacré à l'étude des plantes de la famille des Asteraceae et qui travailla à l'Institut de botanique de l'université de Vienne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1954. Vergleichende Studien über die natürliche Waldvegetation Österreichs und der Schweiz
 1948. Grundlagen für eine Steigerung des Waldertrages durch Züchtung: Versuchsobjekt Weißföhre (Pinus sylvestris). Vol. 45. Mitteilungen der Forstlichen Bundes-Versuch. Mariabrunn, en collaboration avec Wolfgang Wettstein, Josef Glatz, Rudolf Scheuble, éd. Österreich. Staatsdr, 212 pp.
